--- a/biology/Zoologie/Gymnophthalmus_speciosus/Gymnophthalmus_speciosus.xlsx
+++ b/biology/Zoologie/Gymnophthalmus_speciosus/Gymnophthalmus_speciosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnophthalmus speciosus est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnophthalmus speciosus est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Mexique, au Belize, au Guatemala, au Salvador, au Honduras, au Nicaragua, au Costa Rica, au Panama, en Colombie, au Venezuela et sur Chacachacare à Trinité-et-Tobago[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Mexique, au Belize, au Guatemala, au Salvador, au Honduras, au Nicaragua, au Costa Rica, au Panama, en Colombie, au Venezuela et sur Chacachacare à Trinité-et-Tobago.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 novembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 novembre 2012) :
 Gymnophthalmus speciosus birdi Stuart, 1939
 Gymnophthalmus speciosus speciosus (Hallowell, 1861)
 Gymnophthalmus speciosus sumichrasti (Cope, 1876)</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1876 "1875" : On the Batrachia and Reptilia of Costa Rica : With notes on the herpetology and ichthyology of Nicaragua and Peru. Journal of the Academy of Natural Sciences of Philadelphia, sér. 2, vol. 8, p. 93–154 (texte intégral).
 Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).
